--- a/DecisionNG/TestData_Additional_Info.xlsx
+++ b/DecisionNG/TestData_Additional_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumant.pattanshetti\Desktop\AD\MergeCheckProject\DecisionNGAutomation\DecisionNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumant.pattanshetti\OneDrive - Sapiens\Desktop\DecisionNGAutomation7.3\DecisionNGAutomation\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CA0E1-22CD-41EE-9675-38E2DA9F7961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41875C37-6359-480E-98B2-22BAA5960840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{337E16D7-5D6A-44FA-BDF8-B0876A83B133}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="452">
   <si>
     <t>ID</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Validate Tuition Fee Loan_KS_Auto_Add_Info [3.0]</t>
   </si>
   <si>
-    <t>Validate Tuition Fee Loan_KS_Auto_Add_Info [V3.0]</t>
-  </si>
-  <si>
     <t>Additional Info panel, Repository, Flows, Switch Tabs</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Course Intensity Eligibility</t>
   </si>
   <si>
-    <t>Course Intensity Eligibility (View: Auto_Add_Info) [V1.0]</t>
-  </si>
-  <si>
     <t>8176</t>
   </si>
   <si>
@@ -592,16 +586,10 @@
     <t>Student / Student finance</t>
   </si>
   <si>
-    <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Draft,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Approved,Tuition Fee Loan Eligibility_ (View: Auto_Add_Info) [V1.0]|Approved</t>
-  </si>
-  <si>
     <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Draft,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Approved,Tuition Fee Loan Eligibility__ (View: Tuition) [V1.1]|Approved</t>
   </si>
   <si>
     <t>Tuition Fee Loan Eligibility__ (View: Tuition) [V1.1]</t>
-  </si>
-  <si>
-    <t>Tuition Fee Loan Eligibility__ (View: Tuition) [V1.1]|Approved,Tuition Fee Loan Eligibility_ (View: Tuition) [V1.0]|Approved</t>
   </si>
   <si>
     <t>8209</t>
@@ -623,9 +611,6 @@
     <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.0]|Approved,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Approved,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Draft</t>
   </si>
   <si>
-    <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Approved,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Draft,Tuition Fee Loan Eligibility_ (View: Tuition) [V1.0]|Approved,Tuition Fee Loan Eligibility__ (View: Tuition) [V1.0]|Approved</t>
-  </si>
-  <si>
     <t>Tuition Fee Loan Eligibility_ (View: Tuition) [V1.0]|Approved,Tuition Fee Loan Eligibility__ (View: Tuition) [V1.0]|Approved</t>
   </si>
   <si>
@@ -747,9 +732,6 @@
   </si>
   <si>
     <t>Tuition Fee Loan Eligibility_ (View: Tuition) [V1.0]|Approved</t>
-  </si>
-  <si>
-    <t>Automation_Assets / Auto_VG_Assets / Tuition Fee Loan Eligibility_ (View: Auto_Add_Info) [V1.0]</t>
   </si>
   <si>
     <t>Additional info panel, Draft, Decision, With Draft and Approved Rule Families, Associations Tab, Rule families Sub-tab, Verify Functionality</t>
@@ -789,9 +771,6 @@
   </si>
   <si>
     <t xml:space="preserve">Additional Info Panel, Repository, Approved Decision, Associations Tab, Versions Sub -tab, Verify Functionality </t>
-  </si>
-  <si>
-    <t>Tuition Fee Loan Eligibility_ (View: Auto_Add_Info) [V1.0]|Approved</t>
   </si>
   <si>
     <t>8443</t>
@@ -1356,9 +1335,6 @@
     <t>Tuition Fee Loan Eligibility__ [V1.1]|Approved,Course Eligibility__ [V1.1]|Approved,Course Intensity Eligibility [V1.0]|Approved,Studied Before Eligibility [V1.0]|Approved,Nationality or Residency Status Eligibility [V1.0]|Approved</t>
   </si>
   <si>
-    <t>Nationality or Residency Status Eligibility [V1.0]|Approved</t>
-  </si>
-  <si>
     <t>8760</t>
   </si>
   <si>
@@ -1659,26 +1635,59 @@
     <t>Gil's Demo FT Flow</t>
   </si>
   <si>
-    <t>Sumant</t>
-  </si>
-  <si>
     <t>Student Fee Loan Flow_Auto_Add_Info [V1.1]|Approved</t>
   </si>
   <si>
+    <t>Automation_Assets/Auto_VG_Assets</t>
+  </si>
+  <si>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>Course Intensity Eligibility [V1.0]</t>
+  </si>
+  <si>
+    <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Draft,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1]|Approved,Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.0]|Approved</t>
+  </si>
+  <si>
+    <t>Tuition Fee Loan Eligibility__ (View: Tuition) [V1.1]|Approved,Tuition Fee Loan Eligibility_ (View: Tuition) [V1.0]|Approved</t>
+  </si>
+  <si>
+    <t>Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.0]|Approved</t>
+  </si>
+  <si>
+    <t>Automation_Assets / Auto_VG_Assets / Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.0]</t>
+  </si>
+  <si>
+    <t>Studied Before Eligibility (View: Auto_Add_Info) [V1.0]|Approved</t>
+  </si>
+  <si>
+    <t>Automation_Assets / Auto_VG_Assets</t>
+  </si>
+  <si>
     <t>Validate Tuition Fee Loan_KS_Auto_Add_Info [V109.0]</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation_Assets / Auto_VG_Assets </t>
-  </si>
-  <si>
-    <t>Automation_Assets/Auto_VG_Assets</t>
+    <t>Validate Tuition Fee Loan_KS_Auto_Add_Info [109.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuition Fee Loan Eligibility__ (View: Auto_Add_Info) [V1.1] </t>
+  </si>
+  <si>
+    <t>Nationality or Residency Status Eligibility</t>
+  </si>
+  <si>
+    <t>Nationality or Residency Status Eligibility [V1.0]</t>
+  </si>
+  <si>
+    <t>Course Eligibility__ [V1.1]|Approved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,6 +1777,12 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1926,7 +1941,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2041,6 +2056,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2393,10 +2409,10 @@
   <dimension ref="A1:S171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="5"/>
       <c r="J2" s="27"/>
@@ -2517,7 +2533,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" s="27"/>
@@ -2697,10 +2713,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>37</v>
@@ -2747,10 +2763,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -2796,7 +2812,7 @@
       <c r="K12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="31" t="s">
@@ -2897,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M14" s="34" t="s">
         <v>26</v>
@@ -2906,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>446</v>
+        <v>175</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>37</v>
@@ -2969,7 +2985,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>55</v>
@@ -2981,13 +2997,13 @@
         <v>56</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N16" s="29" t="s">
         <v>56</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="29" t="s">
         <v>37</v>
@@ -3022,7 +3038,7 @@
         <v>56</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>55</v>
@@ -3034,13 +3050,13 @@
         <v>56</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>56</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>37</v>
@@ -3413,12 +3429,12 @@
         <v>25</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="27" t="s">
@@ -3545,7 +3561,7 @@
         <v>89</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>37</v>
@@ -3580,7 +3596,7 @@
         <v>8159</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>37</v>
@@ -3595,10 +3611,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>37</v>
@@ -3630,7 +3646,7 @@
         <v>8160</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>37</v>
@@ -3648,7 +3664,7 @@
         <v>37</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>37</v>
@@ -3680,7 +3696,7 @@
         <v>8161</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>37</v>
@@ -3730,7 +3746,7 @@
         <v>8162</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>37</v>
@@ -3780,7 +3796,7 @@
         <v>8163</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>37</v>
@@ -3798,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>37</v>
@@ -3827,13 +3843,13 @@
     </row>
     <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="4"/>
@@ -3858,7 +3874,7 @@
         <v>8165</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>37</v>
@@ -3873,10 +3889,10 @@
         <v>37</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>37</v>
@@ -3908,7 +3924,7 @@
         <v>8166</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>37</v>
@@ -3958,7 +3974,7 @@
         <v>8167</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>37</v>
@@ -4005,10 +4021,10 @@
     </row>
     <row r="39" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4031,13 +4047,13 @@
     </row>
     <row r="40" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>37</v>
@@ -4084,13 +4100,13 @@
     </row>
     <row r="41" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>109</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>37</v>
@@ -4137,13 +4153,13 @@
     </row>
     <row r="42" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>37</v>
@@ -4155,10 +4171,10 @@
         <v>37</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>107</v>
+        <v>449</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>108</v>
+        <v>450</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>26</v>
@@ -4190,13 +4206,13 @@
     </row>
     <row r="43" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>37</v>
@@ -4243,13 +4259,13 @@
     </row>
     <row r="44" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>37</v>
@@ -4267,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>37</v>
@@ -4296,10 +4312,10 @@
     </row>
     <row r="45" spans="1:17" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>82</v>
@@ -4349,13 +4365,13 @@
     </row>
     <row r="46" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>37</v>
@@ -4402,13 +4418,13 @@
     </row>
     <row r="47" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>37</v>
@@ -4426,7 +4442,7 @@
         <v>41</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J47" s="27" t="s">
         <v>37</v>
@@ -4455,10 +4471,10 @@
     </row>
     <row r="48" spans="1:17" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>82</v>
@@ -4508,13 +4524,13 @@
     </row>
     <row r="49" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>129</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>131</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>37</v>
@@ -4561,13 +4577,13 @@
     </row>
     <row r="50" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>134</v>
       </c>
       <c r="D50" s="34" t="s">
         <v>37</v>
@@ -4614,14 +4630,20 @@
     </row>
     <row r="51" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J51" s="27" t="s">
         <v>37</v>
       </c>
@@ -4640,14 +4662,20 @@
     </row>
     <row r="52" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J52" s="27" t="s">
         <v>37</v>
       </c>
@@ -4666,13 +4694,13 @@
     </row>
     <row r="53" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="4"/>
@@ -4694,13 +4722,13 @@
     </row>
     <row r="54" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>37</v>
@@ -4745,12 +4773,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A55" s="52">
         <v>8208</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>37</v>
@@ -4774,22 +4802,22 @@
         <v>26</v>
       </c>
       <c r="J55" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="M55" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="N55" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="L55" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="N55" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="O55" s="29" t="s">
-        <v>151</v>
+        <v>441</v>
       </c>
       <c r="P55" s="31" t="s">
         <v>37</v>
@@ -4797,13 +4825,13 @@
     </row>
     <row r="56" spans="1:17" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>23</v>
@@ -4830,22 +4858,22 @@
         <v>37</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>47</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
@@ -4853,7 +4881,7 @@
         <v>8210</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>37</v>
@@ -4868,10 +4896,10 @@
         <v>20</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>37</v>
@@ -4903,7 +4931,7 @@
         <v>8211</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>37</v>
@@ -4918,13 +4946,13 @@
         <v>37</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J58" s="34" t="s">
         <v>37</v>
@@ -4953,7 +4981,7 @@
         <v>8212</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>37</v>
@@ -5003,7 +5031,7 @@
         <v>8213</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>37</v>
@@ -5050,10 +5078,10 @@
     </row>
     <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5076,13 +5104,13 @@
     </row>
     <row r="62" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>18</v>
@@ -5129,13 +5157,13 @@
     </row>
     <row r="63" spans="1:17" ht="39" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>37</v>
@@ -5182,13 +5210,13 @@
     </row>
     <row r="64" spans="1:17" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>23</v>
@@ -5235,13 +5263,13 @@
     </row>
     <row r="65" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>37</v>
@@ -5288,13 +5316,13 @@
     </row>
     <row r="66" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>18</v>
@@ -5306,10 +5334,10 @@
         <v>20</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I66" s="33" t="s">
         <v>37</v>
@@ -5341,14 +5369,20 @@
     </row>
     <row r="67" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J67" s="27" t="s">
         <v>37</v>
       </c>
@@ -5367,10 +5401,10 @@
     </row>
     <row r="68" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -5396,7 +5430,7 @@
         <v>8276</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>37</v>
@@ -5411,10 +5445,10 @@
         <v>20</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>37</v>
@@ -5446,7 +5480,7 @@
         <v>8277</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>37</v>
@@ -5461,10 +5495,10 @@
         <v>37</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I70" s="34" t="s">
         <v>37</v>
@@ -5496,7 +5530,7 @@
         <v>8278</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>37</v>
@@ -5546,7 +5580,7 @@
         <v>8279</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>37</v>
@@ -5596,7 +5630,7 @@
         <v>8394</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>37</v>
@@ -5611,13 +5645,13 @@
         <v>20</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>37</v>
@@ -5646,7 +5680,7 @@
         <v>8395</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>37</v>
@@ -5661,13 +5695,13 @@
         <v>25</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J74" s="34" t="s">
         <v>37</v>
@@ -5696,7 +5730,7 @@
         <v>8396</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>37</v>
@@ -5717,10 +5751,10 @@
         <v>26</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J75" s="34" t="s">
-        <v>195</v>
+        <v>444</v>
+      </c>
+      <c r="J75" s="60" t="s">
+        <v>443</v>
       </c>
       <c r="K75" s="34" t="s">
         <v>37</v>
@@ -5746,7 +5780,7 @@
         <v>8397</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>37</v>
@@ -5767,7 +5801,7 @@
         <v>26</v>
       </c>
       <c r="I76" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J76" s="34" t="s">
         <v>37</v>
@@ -5793,10 +5827,10 @@
     </row>
     <row r="77" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5819,13 +5853,13 @@
     </row>
     <row r="78" spans="1:17" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>18</v>
@@ -5852,7 +5886,7 @@
         <v>37</v>
       </c>
       <c r="L78" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M78" s="29" t="s">
         <v>37</v>
@@ -5864,18 +5898,18 @@
         <v>37</v>
       </c>
       <c r="P78" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q78" s="31" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5901,7 +5935,7 @@
         <v>8427</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>37</v>
@@ -5922,7 +5956,7 @@
         <v>26</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
       <c r="J80" s="31" t="s">
         <v>37</v>
@@ -5948,13 +5982,13 @@
     </row>
     <row r="81" spans="1:17" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>23</v>
@@ -5981,7 +6015,7 @@
         <v>37</v>
       </c>
       <c r="L81" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M81" s="34" t="s">
         <v>37</v>
@@ -5993,7 +6027,7 @@
         <v>37</v>
       </c>
       <c r="P81" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q81" s="31" t="s">
         <v>26</v>
@@ -6001,13 +6035,13 @@
     </row>
     <row r="82" spans="1:17" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>23</v>
@@ -6034,7 +6068,7 @@
         <v>37</v>
       </c>
       <c r="L82" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M82" s="34" t="s">
         <v>37</v>
@@ -6046,10 +6080,10 @@
         <v>37</v>
       </c>
       <c r="P82" s="44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
@@ -6057,7 +6091,7 @@
         <v>8445</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>37</v>
@@ -6078,10 +6112,10 @@
         <v>26</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J83" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K83" s="31" t="s">
         <v>37</v>
@@ -6104,10 +6138,10 @@
     </row>
     <row r="84" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6130,10 +6164,10 @@
     </row>
     <row r="85" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6156,13 +6190,13 @@
     </row>
     <row r="86" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>18</v>
@@ -6174,10 +6208,10 @@
         <v>20</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I86" s="33" t="s">
         <v>37</v>
@@ -6209,19 +6243,28 @@
     </row>
     <row r="87" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="4"/>
+      <c r="G87" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J87" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K87" s="27" t="s">
         <v>37</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="M87" s="27" t="s">
         <v>37</v>
@@ -6235,13 +6278,13 @@
     </row>
     <row r="88" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>18</v>
@@ -6253,10 +6296,10 @@
         <v>20</v>
       </c>
       <c r="G88" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H88" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I88" s="33" t="s">
         <v>37</v>
@@ -6268,7 +6311,7 @@
         <v>37</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M88" s="34" t="s">
         <v>26</v>
@@ -6280,7 +6323,7 @@
         <v>37</v>
       </c>
       <c r="P88" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q88" s="31" t="s">
         <v>37</v>
@@ -6288,13 +6331,13 @@
     </row>
     <row r="89" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -6316,13 +6359,13 @@
     </row>
     <row r="90" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="4"/>
@@ -6344,13 +6387,13 @@
     </row>
     <row r="91" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>18</v>
@@ -6362,10 +6405,10 @@
         <v>20</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H91" s="46" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I91" s="33" t="s">
         <v>37</v>
@@ -6377,7 +6420,7 @@
         <v>37</v>
       </c>
       <c r="L91" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M91" s="34" t="s">
         <v>37</v>
@@ -6397,10 +6440,10 @@
     </row>
     <row r="92" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6423,13 +6466,13 @@
     </row>
     <row r="93" spans="1:17" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D93" s="34" t="s">
         <v>23</v>
@@ -6456,9 +6499,11 @@
         <v>37</v>
       </c>
       <c r="L93" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="M93" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="M93" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="N93" s="34" t="s">
         <v>37</v>
       </c>
@@ -6466,19 +6511,19 @@
         <v>37</v>
       </c>
       <c r="P93" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q93" s="45"/>
     </row>
     <row r="94" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="47" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="4"/>
@@ -6500,13 +6545,13 @@
     </row>
     <row r="95" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="4"/>
@@ -6528,10 +6573,10 @@
     </row>
     <row r="96" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6555,13 +6600,13 @@
     </row>
     <row r="97" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>37</v>
@@ -6588,10 +6633,10 @@
         <v>37</v>
       </c>
       <c r="L97" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M97" s="29" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="N97" s="34" t="s">
         <v>37</v>
@@ -6600,7 +6645,7 @@
         <v>37</v>
       </c>
       <c r="P97" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q97" s="29" t="s">
         <v>26</v>
@@ -6608,13 +6653,13 @@
     </row>
     <row r="98" spans="1:17" ht="204" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D98" s="34" t="s">
         <v>37</v>
@@ -6641,10 +6686,10 @@
         <v>37</v>
       </c>
       <c r="L98" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M98" s="43" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="N98" s="34" t="s">
         <v>37</v>
@@ -6653,18 +6698,18 @@
         <v>37</v>
       </c>
       <c r="P98" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6688,13 +6733,13 @@
     </row>
     <row r="100" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>18</v>
@@ -6706,10 +6751,10 @@
         <v>20</v>
       </c>
       <c r="G100" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H100" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I100" s="33" t="s">
         <v>37</v>
@@ -6721,7 +6766,7 @@
         <v>37</v>
       </c>
       <c r="L100" s="43" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M100" s="27" t="s">
         <v>37</v>
@@ -6733,7 +6778,7 @@
         <v>37</v>
       </c>
       <c r="P100" s="46" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q100" s="33" t="s">
         <v>37</v>
@@ -6741,10 +6786,10 @@
     </row>
     <row r="101" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6770,7 +6815,7 @@
         <v>8568</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C102" s="55" t="s">
         <v>37</v>
@@ -6785,13 +6830,13 @@
         <v>20</v>
       </c>
       <c r="G102" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I102" s="55" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J102" s="55" t="s">
         <v>37</v>
@@ -6817,10 +6862,10 @@
     </row>
     <row r="103" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6844,13 +6889,13 @@
     </row>
     <row r="104" spans="1:17" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D104" s="31" t="s">
         <v>18</v>
@@ -6877,7 +6922,7 @@
         <v>37</v>
       </c>
       <c r="L104" s="29" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M104" s="29" t="s">
         <v>37</v>
@@ -6889,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="P104" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q104" s="31" t="s">
         <v>37</v>
@@ -6897,13 +6942,13 @@
     </row>
     <row r="105" spans="1:17" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>37</v>
@@ -6930,7 +6975,7 @@
         <v>37</v>
       </c>
       <c r="L105" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M105" s="20" t="s">
         <v>37</v>
@@ -6942,7 +6987,7 @@
         <v>37</v>
       </c>
       <c r="P105" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q105" s="20" t="s">
         <v>37</v>
@@ -6950,10 +6995,10 @@
     </row>
     <row r="106" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6979,7 +7024,7 @@
         <v>8575</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C107" s="55" t="s">
         <v>37</v>
@@ -7026,10 +7071,10 @@
     </row>
     <row r="108" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7056,7 +7101,7 @@
         <v>8577</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C109" s="55" t="s">
         <v>37</v>
@@ -7071,10 +7116,10 @@
         <v>37</v>
       </c>
       <c r="G109" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H109" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I109" s="55" t="s">
         <v>37</v>
@@ -7103,13 +7148,13 @@
     </row>
     <row r="110" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A110" s="47" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="4"/>
@@ -7131,10 +7176,10 @@
     </row>
     <row r="111" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>64</v>
@@ -7184,13 +7229,13 @@
     </row>
     <row r="112" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D112" s="31" t="s">
         <v>18</v>
@@ -7229,18 +7274,18 @@
         <v>37</v>
       </c>
       <c r="P112" s="31" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="39" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>37</v>
@@ -7284,13 +7329,13 @@
     </row>
     <row r="114" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>18</v>
@@ -7302,10 +7347,10 @@
         <v>20</v>
       </c>
       <c r="G114" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H114" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I114" s="33" t="s">
         <v>37</v>
@@ -7337,16 +7382,19 @@
     </row>
     <row r="115" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="4"/>
+      <c r="H115" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J115" s="27" t="s">
         <v>37</v>
       </c>
@@ -7365,10 +7413,10 @@
     </row>
     <row r="116" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7392,10 +7440,10 @@
     </row>
     <row r="117" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7418,10 +7466,10 @@
     </row>
     <row r="118" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7444,10 +7492,10 @@
     </row>
     <row r="119" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7470,10 +7518,10 @@
     </row>
     <row r="120" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -7496,10 +7544,10 @@
     </row>
     <row r="121" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -7523,10 +7571,10 @@
     </row>
     <row r="122" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -7550,10 +7598,10 @@
     </row>
     <row r="123" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -7577,10 +7625,10 @@
     </row>
     <row r="124" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -7604,10 +7652,10 @@
     </row>
     <row r="125" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -7631,10 +7679,10 @@
     </row>
     <row r="126" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -7658,10 +7706,10 @@
     </row>
     <row r="127" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -7685,10 +7733,10 @@
     </row>
     <row r="128" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7712,10 +7760,10 @@
     </row>
     <row r="129" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7738,10 +7786,10 @@
     </row>
     <row r="130" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7766,10 +7814,10 @@
     </row>
     <row r="131" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7795,7 +7843,7 @@
         <v>8649</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
@@ -7809,10 +7857,10 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J132" s="27"/>
       <c r="K132" s="27"/>
@@ -7825,37 +7873,37 @@
         <v>8752</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="4"/>
       <c r="G133" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J133" s="27"/>
       <c r="K133" s="27"/>
       <c r="L133" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M133" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N133" s="27"/>
       <c r="O133" s="27"/>
     </row>
     <row r="134" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7878,10 +7926,10 @@
     </row>
     <row r="135" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7904,10 +7952,10 @@
     </row>
     <row r="136" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7930,10 +7978,10 @@
     </row>
     <row r="137" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7956,10 +8004,10 @@
     </row>
     <row r="138" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -7982,13 +8030,13 @@
     </row>
     <row r="139" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>37</v>
@@ -8015,7 +8063,7 @@
         <v>37</v>
       </c>
       <c r="L139" s="29" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M139" s="34" t="s">
         <v>37</v>
@@ -8027,7 +8075,7 @@
         <v>37</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q139" s="31" t="s">
         <v>37</v>
@@ -8035,13 +8083,13 @@
     </row>
     <row r="140" spans="1:17" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D140" s="34" t="s">
         <v>23</v>
@@ -8068,7 +8116,7 @@
         <v>37</v>
       </c>
       <c r="L140" s="29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M140" s="34" t="s">
         <v>37</v>
@@ -8080,7 +8128,7 @@
         <v>37</v>
       </c>
       <c r="P140" s="29" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="Q140" s="31" t="s">
         <v>37</v>
@@ -8088,13 +8136,13 @@
     </row>
     <row r="141" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>37</v>
@@ -8121,7 +8169,7 @@
         <v>37</v>
       </c>
       <c r="L141" s="29" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M141" s="34" t="s">
         <v>37</v>
@@ -8133,7 +8181,7 @@
         <v>37</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q141" s="31" t="s">
         <v>37</v>
@@ -8141,13 +8189,13 @@
     </row>
     <row r="142" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="47" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="4"/>
@@ -8169,13 +8217,13 @@
     </row>
     <row r="143" spans="1:17" ht="39" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D143" s="31" t="s">
         <v>37</v>
@@ -8222,13 +8270,13 @@
     </row>
     <row r="144" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>18</v>
@@ -8275,10 +8323,10 @@
     </row>
     <row r="145" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="4"/>
@@ -8300,13 +8348,13 @@
     </row>
     <row r="146" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="47" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="4"/>
@@ -8331,7 +8379,7 @@
         <v>8833</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C147" s="55" t="s">
         <v>37</v>
@@ -8346,10 +8394,10 @@
         <v>37</v>
       </c>
       <c r="G147" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H147" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I147" s="55" t="s">
         <v>37</v>
@@ -8381,7 +8429,7 @@
         <v>8834</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C148" s="57" t="s">
         <v>37</v>
@@ -8428,10 +8476,10 @@
     </row>
     <row r="149" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8454,13 +8502,13 @@
     </row>
     <row r="150" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>37</v>
@@ -8507,13 +8555,13 @@
     </row>
     <row r="151" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>37</v>
@@ -8560,13 +8608,13 @@
     </row>
     <row r="152" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D152" s="34" t="s">
         <v>37</v>
@@ -8616,7 +8664,7 @@
         <v>8840</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C153" s="55" t="s">
         <v>37</v>
@@ -8631,10 +8679,10 @@
         <v>20</v>
       </c>
       <c r="G153" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H153" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I153" s="55" t="s">
         <v>37</v>
@@ -8646,10 +8694,10 @@
         <v>37</v>
       </c>
       <c r="L153" s="58" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M153" s="59" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N153" s="54" t="s">
         <v>37</v>
@@ -8666,7 +8714,7 @@
         <v>8842</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C154" s="57" t="s">
         <v>37</v>
@@ -8681,10 +8729,10 @@
         <v>37</v>
       </c>
       <c r="G154" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H154" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I154" s="57" t="s">
         <v>37</v>
@@ -8696,10 +8744,10 @@
         <v>37</v>
       </c>
       <c r="L154" s="58" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M154" s="59" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N154" s="56" t="s">
         <v>37</v>
@@ -8713,13 +8761,13 @@
     </row>
     <row r="155" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>18</v>
@@ -8746,13 +8794,13 @@
         <v>37</v>
       </c>
       <c r="L155" s="31" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M155" s="31" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N155" s="31" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O155" s="34" t="s">
         <v>37</v>
@@ -8766,13 +8814,13 @@
     </row>
     <row r="156" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D156" s="34" t="s">
         <v>37</v>
@@ -8799,13 +8847,13 @@
         <v>37</v>
       </c>
       <c r="L156" s="34" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M156" s="34" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N156" s="34" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O156" s="34" t="s">
         <v>37</v>
@@ -8819,13 +8867,13 @@
     </row>
     <row r="157" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D157" s="31" t="s">
         <v>37</v>
@@ -8852,7 +8900,7 @@
         <v>37</v>
       </c>
       <c r="L157" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M157" s="34" t="s">
         <v>37</v>
@@ -8872,13 +8920,13 @@
     </row>
     <row r="158" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D158" s="34" t="s">
         <v>37</v>
@@ -8925,10 +8973,10 @@
     </row>
     <row r="159" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -8951,10 +8999,10 @@
     </row>
     <row r="160" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -8977,10 +9025,10 @@
     </row>
     <row r="161" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9003,13 +9051,13 @@
     </row>
     <row r="162" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A162" s="47" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="4"/>
@@ -9031,10 +9079,10 @@
     </row>
     <row r="163" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9057,10 +9105,10 @@
     </row>
     <row r="164" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9083,10 +9131,10 @@
     </row>
     <row r="165" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9109,13 +9157,13 @@
     </row>
     <row r="166" spans="1:17" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D166" s="31" t="s">
         <v>18</v>
@@ -9142,7 +9190,7 @@
         <v>37</v>
       </c>
       <c r="L166" s="31" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M166" s="31" t="s">
         <v>37</v>
@@ -9154,7 +9202,7 @@
         <v>37</v>
       </c>
       <c r="P166" s="32" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q166" s="33" t="s">
         <v>37</v>
@@ -9162,13 +9210,13 @@
     </row>
     <row r="167" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D167" s="31" t="s">
         <v>18</v>
@@ -9215,13 +9263,13 @@
     </row>
     <row r="168" spans="1:17" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D168" s="34" t="s">
         <v>18</v>
@@ -9236,10 +9284,10 @@
         <v>40</v>
       </c>
       <c r="H168" s="32" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I168" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J168" s="32"/>
       <c r="K168" s="32"/>
@@ -9264,13 +9312,13 @@
     </row>
     <row r="169" spans="1:17" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D169" s="34" t="s">
         <v>18</v>
@@ -9288,7 +9336,7 @@
         <v>41</v>
       </c>
       <c r="I169" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J169" s="32"/>
       <c r="K169" s="32"/>
@@ -9313,13 +9361,13 @@
     </row>
     <row r="170" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D170" s="34" t="s">
         <v>18</v>
@@ -9337,7 +9385,7 @@
         <v>41</v>
       </c>
       <c r="I170" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J170" s="32"/>
       <c r="K170" s="32"/>
@@ -9362,13 +9410,13 @@
     </row>
     <row r="171" spans="1:17" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="26" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D171" s="31" t="s">
         <v>37</v>
@@ -9389,7 +9437,7 @@
       <c r="J171" s="32"/>
       <c r="K171" s="32"/>
       <c r="L171" s="30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M171" s="29" t="s">
         <v>37</v>
@@ -9401,7 +9449,7 @@
         <v>37</v>
       </c>
       <c r="P171" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q171" s="40"/>
     </row>
@@ -9416,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F50023B-1F02-4B81-85EA-8EE0DA608F03}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,31 +9482,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>439</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>37</v>
@@ -9469,25 +9517,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>44</v>
@@ -9509,15 +9557,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100548A3A4EA8565A41AC01AD1A313ADB84" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59361755028e83e08bc1f5d3dd38348e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6baf2d7d-4067-4909-b28f-93e140c643d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6304690997b3ce662bc7dbcd52538a8" ns2:_="">
     <xsd:import namespace="6baf2d7d-4067-4909-b28f-93e140c643d2"/>
@@ -9669,6 +9708,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9676,14 +9724,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B48AE7F-62DC-4054-A869-0A11F3C496B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9DC4C55-9CC0-48C0-AA5B-F8C49D24CA5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9701,6 +9741,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B48AE7F-62DC-4054-A869-0A11F3C496B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C829BBAB-A806-4F26-B2AB-910E4DB16B08}">
   <ds:schemaRefs>
